--- a/PCA on ToF-SIMS (spectra) data/Inputs_ToF - PCA.xlsx
+++ b/PCA on ToF-SIMS (spectra) data/Inputs_ToF - PCA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teolo\Documents\Teo\Codes\New\ToF-SIMS\PCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teolo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5FA528-DEC6-4755-B2C2-258E24C14328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AFE7FE-71FF-4D49-AE29-AF17F8BB19C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{CFDD6E18-9ECC-4883-A45C-6296B4FADBD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFDD6E18-9ECC-4883-A45C-6296B4FADBD6}"/>
   </bookViews>
   <sheets>
     <sheet name="PCA applied to SIMS data" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,11 +809,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954BF26F-F562-4852-9585-5BB587B92B53}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="76.7109375" customWidth="1"/>
@@ -823,7 +823,7 @@
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" thickBot="1">
+    <row r="1" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,14 +834,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="64.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -850,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="84" thickBot="1">
+    <row r="4" spans="1:3" ht="84" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -859,7 +859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -868,7 +868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51.75" thickBot="1">
+    <row r="6" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -877,7 +877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25" thickBot="1">
+    <row r="7" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="102.75" thickBot="1">
+    <row r="8" spans="1:3" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -895,9 +895,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1"/>
-    <row r="12" spans="1:3" ht="21" customHeight="1"/>
-    <row r="15" spans="1:3" ht="39.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>
@@ -908,15 +908,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AC91D92F486FDC47B3EF9123D3BAEFB9" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="83d9cee093835505d3304f411126831e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33d5f7fa-9e83-4bc4-a19a-5256d0f00943" xmlns:ns3="d7792865-cc65-4be1-9bf5-a00b3f24943d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f96232782425850ca7fb8b659720fc8" ns2:_="" ns3:_="">
     <xsd:import namespace="33d5f7fa-9e83-4bc4-a19a-5256d0f00943"/>
@@ -1119,6 +1110,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1126,13 +1126,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA5247D-3ED0-401B-8639-6C8B5BE87D3E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B1DC3FB-EF19-4911-9D94-EAA436C7E1DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="33d5f7fa-9e83-4bc4-a19a-5256d0f00943"/>
+    <ds:schemaRef ds:uri="d7792865-cc65-4be1-9bf5-a00b3f24943d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B1DC3FB-EF19-4911-9D94-EAA436C7E1DB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA5247D-3ED0-401B-8639-6C8B5BE87D3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4CA2D5E-BCC8-4249-8593-BE36559ADCF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4CA2D5E-BCC8-4249-8593-BE36559ADCF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>